--- a/XXXXXXX_GUIA.xlsx
+++ b/XXXXXXX_GUIA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10921"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andres/code/python/coosalud/acta_conciliacion/programa/csv_conciliation_docker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{694C5748-347E-5C4B-85D4-B75762865FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397D4743-B6BF-5C44-BEA4-EC20FDDDDB68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="30240" windowHeight="18960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="59">
   <si>
     <r>
       <rPr>
@@ -495,6 +495,9 @@
   </si>
   <si>
     <t>Revisión por Vicepresidencia de Planeación y Control Financiero</t>
+  </si>
+  <si>
+    <t>COORDINADOR EXTERNO DE CUENTAS MEDICAS</t>
   </si>
 </sst>
 </file>
@@ -1022,7 +1025,7 @@
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1267,67 +1270,76 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1692,9 +1704,7 @@
   </sheetPr>
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A9" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28:G28"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="150" zoomScaleNormal="110" zoomScaleSheetLayoutView="110" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1790,11 +1800,11 @@
       </c>
       <c r="F4" s="38"/>
       <c r="G4" s="39"/>
-      <c r="H4" s="99" t="s">
+      <c r="H4" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
       <c r="K4" s="39"/>
       <c r="L4" s="3" t="s">
         <v>13</v>
@@ -1948,7 +1958,7 @@
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="M10" s="48"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="20" x14ac:dyDescent="0.15">
       <c r="A11" s="68" t="s">
         <v>37</v>
       </c>
@@ -2035,7 +2045,7 @@
       <c r="L18" s="24"/>
       <c r="M18" s="48"/>
     </row>
-    <row r="19" spans="1:13" ht="70" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:13" ht="90" x14ac:dyDescent="0.15">
       <c r="A19" s="77" t="s">
         <v>42</v>
       </c>
@@ -2052,7 +2062,7 @@
       <c r="L19" s="78"/>
       <c r="M19" s="78"/>
     </row>
-    <row r="20" spans="1:13" ht="90" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:13" ht="120" x14ac:dyDescent="0.15">
       <c r="A20" s="78" t="s">
         <v>43</v>
       </c>
@@ -2077,8 +2087,8 @@
       <c r="E21" s="80"/>
       <c r="F21" s="79"/>
       <c r="G21" s="79"/>
-      <c r="H21" s="80"/>
-      <c r="I21" s="79"/>
+      <c r="H21" s="102"/>
+      <c r="I21" s="102"/>
       <c r="J21" s="79"/>
       <c r="K21" s="80"/>
       <c r="L21" s="79"/>
@@ -2092,65 +2102,65 @@
       <c r="E22" s="80"/>
       <c r="F22" s="79"/>
       <c r="G22" s="79"/>
-      <c r="H22" s="82"/>
-      <c r="I22" s="82"/>
+      <c r="H22" s="103"/>
+      <c r="I22" s="103"/>
       <c r="J22" s="79"/>
       <c r="K22" s="80"/>
       <c r="L22" s="79"/>
       <c r="M22" s="48"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A23" s="83" t="s">
+      <c r="A23" s="82" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="83"/>
+      <c r="B23" s="82"/>
       <c r="C23" s="79"/>
       <c r="D23" s="79"/>
       <c r="E23" s="80"/>
       <c r="F23" s="79"/>
       <c r="G23" s="79"/>
-      <c r="H23" s="83" t="s">
+      <c r="H23" s="82" t="s">
         <v>44</v>
       </c>
-      <c r="I23" s="83"/>
+      <c r="I23" s="82"/>
       <c r="J23" s="79"/>
       <c r="K23" s="80"/>
       <c r="L23" s="79"/>
       <c r="M23" s="48"/>
     </row>
     <row r="24" spans="1:13" ht="20" x14ac:dyDescent="0.15">
-      <c r="A24" s="84" t="s">
+      <c r="A24" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="84"/>
+      <c r="B24" s="83"/>
       <c r="C24" s="79"/>
       <c r="D24" s="79"/>
       <c r="E24" s="80"/>
       <c r="F24" s="79"/>
       <c r="G24" s="79"/>
-      <c r="H24" s="84" t="s">
+      <c r="H24" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="I24" s="84"/>
+      <c r="I24" s="83"/>
       <c r="J24" s="79"/>
       <c r="K24" s="80"/>
       <c r="L24" s="79"/>
       <c r="M24" s="48"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A25" s="84" t="s">
+    <row r="25" spans="1:13" ht="20" x14ac:dyDescent="0.15">
+      <c r="A25" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="84"/>
+      <c r="B25" s="83"/>
       <c r="C25" s="79"/>
       <c r="D25" s="79"/>
       <c r="E25" s="80"/>
       <c r="F25" s="79"/>
       <c r="G25" s="79"/>
-      <c r="H25" s="84" t="s">
+      <c r="H25" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="I25" s="84"/>
+      <c r="I25" s="83"/>
       <c r="J25" s="79"/>
       <c r="K25" s="80"/>
       <c r="L25" s="79"/>
@@ -2172,111 +2182,115 @@
       <c r="M26" s="48"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A27" s="85"/>
-      <c r="B27" s="86"/>
-      <c r="C27" s="87" t="s">
+      <c r="A27" s="84"/>
+      <c r="B27" s="85"/>
+      <c r="C27" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="87"/>
-      <c r="E27" s="88"/>
-      <c r="F27" s="68" t="s">
+      <c r="D27" s="86"/>
+      <c r="E27" s="87"/>
+      <c r="F27" s="96" t="s">
         <v>50</v>
       </c>
-      <c r="G27" s="70"/>
-      <c r="H27" s="68" t="s">
+      <c r="G27" s="97"/>
+      <c r="H27" s="96" t="s">
         <v>51</v>
       </c>
-      <c r="I27" s="70"/>
+      <c r="I27" s="97"/>
       <c r="M27" s="48"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A28" s="89" t="s">
+    <row r="28" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="B28" s="90"/>
-      <c r="C28" s="91"/>
-      <c r="D28" s="91"/>
-      <c r="E28" s="91"/>
-      <c r="F28" s="101"/>
-      <c r="G28" s="102"/>
-      <c r="H28" s="92"/>
-      <c r="I28" s="93"/>
+      <c r="B28" s="89"/>
+      <c r="C28" s="90"/>
+      <c r="D28" s="90"/>
+      <c r="E28" s="90"/>
+      <c r="F28" s="100" t="s">
+        <v>58</v>
+      </c>
+      <c r="G28" s="101"/>
+      <c r="H28" s="104"/>
+      <c r="I28" s="105"/>
       <c r="M28" s="48"/>
     </row>
     <row r="29" spans="1:13" ht="20" x14ac:dyDescent="0.15">
-      <c r="A29" s="89" t="s">
+      <c r="A29" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="90"/>
-      <c r="C29" s="91"/>
-      <c r="D29" s="91"/>
-      <c r="E29" s="91"/>
-      <c r="F29" s="94"/>
-      <c r="G29" s="95"/>
-      <c r="H29" s="96"/>
-      <c r="I29" s="95"/>
+      <c r="B29" s="89"/>
+      <c r="C29" s="90"/>
+      <c r="D29" s="90"/>
+      <c r="E29" s="90"/>
+      <c r="F29" s="91"/>
+      <c r="G29" s="92"/>
+      <c r="H29" s="93"/>
+      <c r="I29" s="92"/>
       <c r="M29" s="48"/>
     </row>
     <row r="30" spans="1:13" ht="20" x14ac:dyDescent="0.15">
-      <c r="A30" s="89" t="s">
+      <c r="A30" s="88" t="s">
         <v>54</v>
       </c>
-      <c r="B30" s="90"/>
-      <c r="C30" s="97"/>
-      <c r="D30" s="97"/>
-      <c r="E30" s="97"/>
-      <c r="F30" s="98"/>
-      <c r="G30" s="95"/>
-      <c r="H30" s="96"/>
-      <c r="I30" s="95"/>
+      <c r="B30" s="89"/>
+      <c r="C30" s="94"/>
+      <c r="D30" s="94"/>
+      <c r="E30" s="94"/>
+      <c r="F30" s="95"/>
+      <c r="G30" s="92"/>
+      <c r="H30" s="93"/>
+      <c r="I30" s="92"/>
       <c r="M30" s="48"/>
     </row>
     <row r="31" spans="1:13" ht="30" x14ac:dyDescent="0.15">
-      <c r="A31" s="89" t="s">
+      <c r="A31" s="88" t="s">
         <v>55</v>
       </c>
-      <c r="B31" s="90"/>
-      <c r="C31" s="97"/>
-      <c r="D31" s="97"/>
-      <c r="E31" s="97"/>
-      <c r="F31" s="98"/>
-      <c r="G31" s="95"/>
-      <c r="H31" s="96"/>
-      <c r="I31" s="95"/>
+      <c r="B31" s="89"/>
+      <c r="C31" s="94"/>
+      <c r="D31" s="94"/>
+      <c r="E31" s="94"/>
+      <c r="F31" s="95"/>
+      <c r="G31" s="92"/>
+      <c r="H31" s="93"/>
+      <c r="I31" s="92"/>
       <c r="M31" s="48"/>
     </row>
     <row r="32" spans="1:13" ht="20" x14ac:dyDescent="0.15">
-      <c r="A32" s="89" t="s">
+      <c r="A32" s="88" t="s">
         <v>56</v>
       </c>
-      <c r="B32" s="90"/>
-      <c r="C32" s="97"/>
-      <c r="D32" s="97"/>
-      <c r="E32" s="97"/>
-      <c r="F32" s="98"/>
-      <c r="G32" s="95"/>
-      <c r="H32" s="96"/>
-      <c r="I32" s="95"/>
+      <c r="B32" s="89"/>
+      <c r="C32" s="94"/>
+      <c r="D32" s="94"/>
+      <c r="E32" s="94"/>
+      <c r="F32" s="95"/>
+      <c r="G32" s="92"/>
+      <c r="H32" s="93"/>
+      <c r="I32" s="92"/>
       <c r="M32" s="48"/>
     </row>
-    <row r="33" spans="1:13" ht="30" x14ac:dyDescent="0.15">
-      <c r="A33" s="89" t="s">
+    <row r="33" spans="1:13" ht="40" x14ac:dyDescent="0.15">
+      <c r="A33" s="88" t="s">
         <v>57</v>
       </c>
-      <c r="B33" s="90"/>
-      <c r="C33" s="97"/>
-      <c r="D33" s="97"/>
-      <c r="E33" s="97"/>
-      <c r="F33" s="98"/>
-      <c r="G33" s="95"/>
-      <c r="H33" s="96"/>
-      <c r="I33" s="95"/>
+      <c r="B33" s="89"/>
+      <c r="C33" s="94"/>
+      <c r="D33" s="94"/>
+      <c r="E33" s="94"/>
+      <c r="F33" s="95"/>
+      <c r="G33" s="92"/>
+      <c r="H33" s="93"/>
+      <c r="I33" s="92"/>
       <c r="M33" s="48"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H21:I22"/>
+    <mergeCell ref="H28:I28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="58" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/XXXXXXX_GUIA.xlsx
+++ b/XXXXXXX_GUIA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11122"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andres/code/python/coosalud/acta_conciliacion/programa/csv_conciliation_docker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397D4743-B6BF-5C44-BEA4-EC20FDDDDB68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F3A41F2-1D48-9E46-890F-2F5E18D1D4B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="30240" windowHeight="18960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="60">
   <si>
     <r>
       <rPr>
@@ -498,6 +498,9 @@
   </si>
   <si>
     <t>COORDINADOR EXTERNO DE CUENTAS MEDICAS</t>
+  </si>
+  <si>
+    <t>VICTOR ANDRES MOLINA FISGATIVA</t>
   </si>
 </sst>
 </file>
@@ -642,7 +645,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -1007,14 +1010,45 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1025,7 +1059,7 @@
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1297,9 +1331,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1312,10 +1343,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1324,10 +1379,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1336,10 +1388,10 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1409,6 +1461,106 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>39356</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>7515</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>657422</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>220585</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B127D2AE-7F57-EC7C-908F-289DACE6B2CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6970694" y="7734839"/>
+          <a:ext cx="1762855" cy="374056"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>17888</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>1233713</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>402465</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>112789</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A092C5D-487D-2B97-8F81-B831F2A14A44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6949226" y="6134840"/>
+          <a:ext cx="1529366" cy="560484"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1704,7 +1856,7 @@
   </sheetPr>
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="150" zoomScaleNormal="110" zoomScaleSheetLayoutView="110" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="142" zoomScaleNormal="110" zoomScaleSheetLayoutView="110" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1800,11 +1952,11 @@
       </c>
       <c r="F4" s="38"/>
       <c r="G4" s="39"/>
-      <c r="H4" s="98" t="s">
+      <c r="H4" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
+      <c r="I4" s="106"/>
+      <c r="J4" s="106"/>
       <c r="K4" s="39"/>
       <c r="L4" s="3" t="s">
         <v>13</v>
@@ -2087,8 +2239,8 @@
       <c r="E21" s="80"/>
       <c r="F21" s="79"/>
       <c r="G21" s="79"/>
-      <c r="H21" s="102"/>
-      <c r="I21" s="102"/>
+      <c r="H21" s="108"/>
+      <c r="I21" s="108"/>
       <c r="J21" s="79"/>
       <c r="K21" s="80"/>
       <c r="L21" s="79"/>
@@ -2102,8 +2254,8 @@
       <c r="E22" s="80"/>
       <c r="F22" s="79"/>
       <c r="G22" s="79"/>
-      <c r="H22" s="103"/>
-      <c r="I22" s="103"/>
+      <c r="H22" s="109"/>
+      <c r="I22" s="109"/>
       <c r="J22" s="79"/>
       <c r="K22" s="80"/>
       <c r="L22" s="79"/>
@@ -2204,15 +2356,17 @@
         <v>52</v>
       </c>
       <c r="B28" s="89"/>
-      <c r="C28" s="90"/>
+      <c r="C28" s="95" t="s">
+        <v>59</v>
+      </c>
       <c r="D28" s="90"/>
       <c r="E28" s="90"/>
-      <c r="F28" s="100" t="s">
+      <c r="F28" s="107" t="s">
         <v>58</v>
       </c>
-      <c r="G28" s="101"/>
-      <c r="H28" s="104"/>
-      <c r="I28" s="105"/>
+      <c r="G28" s="107"/>
+      <c r="H28" s="110"/>
+      <c r="I28" s="111"/>
       <c r="M28" s="48"/>
     </row>
     <row r="29" spans="1:13" ht="20" x14ac:dyDescent="0.15">
@@ -2223,10 +2377,10 @@
       <c r="C29" s="90"/>
       <c r="D29" s="90"/>
       <c r="E29" s="90"/>
-      <c r="F29" s="91"/>
-      <c r="G29" s="92"/>
-      <c r="H29" s="93"/>
-      <c r="I29" s="92"/>
+      <c r="F29" s="101"/>
+      <c r="G29" s="102"/>
+      <c r="H29" s="103"/>
+      <c r="I29" s="104"/>
       <c r="M29" s="48"/>
     </row>
     <row r="30" spans="1:13" ht="20" x14ac:dyDescent="0.15">
@@ -2234,13 +2388,13 @@
         <v>54</v>
       </c>
       <c r="B30" s="89"/>
-      <c r="C30" s="94"/>
-      <c r="D30" s="94"/>
-      <c r="E30" s="94"/>
-      <c r="F30" s="95"/>
-      <c r="G30" s="92"/>
-      <c r="H30" s="93"/>
-      <c r="I30" s="92"/>
+      <c r="C30" s="93"/>
+      <c r="D30" s="93"/>
+      <c r="E30" s="93"/>
+      <c r="F30" s="100"/>
+      <c r="G30" s="99"/>
+      <c r="H30" s="98"/>
+      <c r="I30" s="99"/>
       <c r="M30" s="48"/>
     </row>
     <row r="31" spans="1:13" ht="30" x14ac:dyDescent="0.15">
@@ -2248,13 +2402,13 @@
         <v>55</v>
       </c>
       <c r="B31" s="89"/>
-      <c r="C31" s="94"/>
-      <c r="D31" s="94"/>
-      <c r="E31" s="94"/>
-      <c r="F31" s="95"/>
-      <c r="G31" s="92"/>
-      <c r="H31" s="93"/>
-      <c r="I31" s="92"/>
+      <c r="C31" s="93"/>
+      <c r="D31" s="93"/>
+      <c r="E31" s="93"/>
+      <c r="F31" s="94"/>
+      <c r="G31" s="91"/>
+      <c r="H31" s="92"/>
+      <c r="I31" s="91"/>
       <c r="M31" s="48"/>
     </row>
     <row r="32" spans="1:13" ht="20" x14ac:dyDescent="0.15">
@@ -2262,13 +2416,13 @@
         <v>56</v>
       </c>
       <c r="B32" s="89"/>
-      <c r="C32" s="94"/>
-      <c r="D32" s="94"/>
-      <c r="E32" s="94"/>
-      <c r="F32" s="95"/>
-      <c r="G32" s="92"/>
-      <c r="H32" s="93"/>
-      <c r="I32" s="92"/>
+      <c r="C32" s="93"/>
+      <c r="D32" s="93"/>
+      <c r="E32" s="93"/>
+      <c r="F32" s="94"/>
+      <c r="G32" s="91"/>
+      <c r="H32" s="92"/>
+      <c r="I32" s="91"/>
       <c r="M32" s="48"/>
     </row>
     <row r="33" spans="1:13" ht="40" x14ac:dyDescent="0.15">
@@ -2276,13 +2430,13 @@
         <v>57</v>
       </c>
       <c r="B33" s="89"/>
-      <c r="C33" s="94"/>
-      <c r="D33" s="94"/>
-      <c r="E33" s="94"/>
-      <c r="F33" s="95"/>
-      <c r="G33" s="92"/>
-      <c r="H33" s="93"/>
-      <c r="I33" s="92"/>
+      <c r="C33" s="93"/>
+      <c r="D33" s="93"/>
+      <c r="E33" s="93"/>
+      <c r="F33" s="94"/>
+      <c r="G33" s="91"/>
+      <c r="H33" s="92"/>
+      <c r="I33" s="91"/>
       <c r="M33" s="48"/>
     </row>
   </sheetData>
